--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf2-Eng.xlsx
@@ -543,7 +543,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H2">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N2">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O2">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P2">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q2">
-        <v>5.060556763096001</v>
+        <v>4.129003117359555</v>
       </c>
       <c r="R2">
-        <v>45.54501086786401</v>
+        <v>37.161028056236</v>
       </c>
       <c r="S2">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="T2">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,7 +605,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H3">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>146.311485</v>
       </c>
       <c r="O3">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P3">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q3">
-        <v>1.210223576593334</v>
+        <v>1.210223576593333</v>
       </c>
       <c r="R3">
         <v>10.89201218934</v>
       </c>
       <c r="S3">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="T3">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,7 +667,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H4">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N4">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O4">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P4">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q4">
-        <v>0.179303063972</v>
+        <v>0.183699577724</v>
       </c>
       <c r="R4">
-        <v>1.613727575748</v>
+        <v>1.653296199516</v>
       </c>
       <c r="S4">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="T4">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,7 +729,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H5">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N5">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O5">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P5">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q5">
-        <v>0.5428078428553333</v>
+        <v>0.127024281086</v>
       </c>
       <c r="R5">
-        <v>3.256847057132001</v>
+        <v>0.762145686516</v>
       </c>
       <c r="S5">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="T5">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,7 +791,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H6">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N6">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O6">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P6">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q6">
-        <v>0.1241152370337778</v>
+        <v>0.2825988204871111</v>
       </c>
       <c r="R6">
-        <v>1.117037133304</v>
+        <v>2.543389384384</v>
       </c>
       <c r="S6">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="T6">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
     </row>
   </sheetData>
